--- a/DDLTest/Excel/SetTypes_集合类型.xlsx
+++ b/DDLTest/Excel/SetTypes_集合类型.xlsx
@@ -42,6 +42,133 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>list_bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list:long</t>
+  </si>
+  <si>
+    <t>list:float</t>
+  </si>
+  <si>
+    <t>list:bool</t>
+  </si>
+  <si>
+    <t>list:string</t>
+  </si>
+  <si>
+    <t>##整形字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长整形字典</t>
+  </si>
+  <si>
+    <t>浮点型字典</t>
+  </si>
+  <si>
+    <t>布尔型字典</t>
+  </si>
+  <si>
+    <t>字符串字典</t>
+  </si>
+  <si>
+    <t>dict:long:bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict:float:bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict:bool:bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict:string:bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list:int</t>
+  </si>
+  <si>
+    <t>##ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff集合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_BuffType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list:BuffType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>]]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整形集合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##dict_int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##dict:int:bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>list_long</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -50,128 +177,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>list_bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>list_string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list:long</t>
-  </si>
-  <si>
-    <t>list:float</t>
-  </si>
-  <si>
-    <t>list:bool</t>
-  </si>
-  <si>
-    <t>list:string</t>
-  </si>
-  <si>
-    <t>##整形字典</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长整形字典</t>
-  </si>
-  <si>
-    <t>浮点型字典</t>
-  </si>
-  <si>
-    <t>布尔型字典</t>
-  </si>
-  <si>
-    <t>字符串字典</t>
-  </si>
-  <si>
-    <t>dict_long</t>
-  </si>
-  <si>
-    <t>dict_float</t>
-  </si>
-  <si>
-    <t>dict_bool</t>
-  </si>
-  <si>
-    <t>dict_string</t>
-  </si>
-  <si>
-    <t>##dict_int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##dict:int:bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict:long:bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict:float:bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict:bool:bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict:string:bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整形集合</t>
-  </si>
-  <si>
-    <t>list_int</t>
-  </si>
-  <si>
-    <t>list:int</t>
-  </si>
-  <si>
-    <t>##ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>]]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff集合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_BuffType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list:BuffType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>]]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +561,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -581,10 +587,10 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -599,53 +605,53 @@
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="R3" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.25">
@@ -659,13 +665,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>1.1000000000000001</v>
@@ -674,7 +680,7 @@
         <v>2.1</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -683,25 +689,25 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -715,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -724,7 +730,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>2.2000000000000002</v>
@@ -733,7 +739,7 @@
         <v>3.2</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -742,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
@@ -751,13 +757,13 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="U5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -771,7 +777,7 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>36</v>
@@ -780,7 +786,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>3.3</v>
@@ -789,7 +795,7 @@
         <v>4.3</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -798,25 +804,25 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="P6" t="s">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="R6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="U6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -830,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J12:J13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -862,62 +868,62 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.25">
@@ -931,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -946,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>1.1000000000000001</v>
@@ -955,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -964,16 +970,16 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -987,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -996,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J5">
         <v>2.2000000000000002</v>
@@ -1005,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -1014,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
         <v>0</v>
@@ -1029,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1043,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>36</v>
@@ -1058,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J6">
         <v>3.3</v>
@@ -1067,10 +1073,10 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
         <v>1</v>
@@ -1091,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
